--- a/docs/data/data.xlsx
+++ b/docs/data/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\JavaProject\COMP2013JDatabase-Assigment\docs\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A540E55-700F-43B8-B9D8-BEC275A72643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="5670" yWindow="3780" windowWidth="19200" windowHeight="11170" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fruit" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,23 @@
     <sheet name="Drink" sheetId="5" r:id="rId5"/>
     <sheet name="总的" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="155">
   <si>
     <t>apple</t>
   </si>
@@ -32,7 +49,7 @@
         <sz val="10.5"/>
         <color rgb="FF2A2B2E"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>banana</t>
     </r>
@@ -43,7 +60,7 @@
         <sz val="10.5"/>
         <color rgb="FF2A2B2E"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>orange</t>
     </r>
@@ -57,7 +74,7 @@
         <sz val="10.5"/>
         <color rgb="FF2A2B2E"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>bayberry</t>
     </r>
@@ -71,7 +88,7 @@
         <sz val="10.5"/>
         <color rgb="FF2A2B2E"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>peach</t>
     </r>
@@ -82,7 +99,7 @@
         <sz val="10.5"/>
         <color rgb="FF2A2B2E"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>lute</t>
     </r>
@@ -93,7 +110,7 @@
         <sz val="10.5"/>
         <color rgb="FF2A2B2E"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>watermelon</t>
     </r>
@@ -104,7 +121,7 @@
         <sz val="10.5"/>
         <color rgb="FF2A2B2E"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>mango</t>
     </r>
@@ -118,7 +135,7 @@
         <sz val="10.5"/>
         <color rgb="FF2A2B2E"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>pomelo</t>
     </r>
@@ -132,7 +149,7 @@
         <sz val="10.5"/>
         <color rgb="FF2A2B2E"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>pear</t>
     </r>
@@ -143,7 +160,7 @@
         <sz val="10.5"/>
         <color rgb="FF2A2B2E"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>grape</t>
     </r>
@@ -154,7 +171,7 @@
         <sz val="10.5"/>
         <color rgb="FF2A2B2E"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>mangosteen</t>
     </r>
@@ -165,7 +182,7 @@
         <sz val="10.5"/>
         <color rgb="FF2A2B2E"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>durian</t>
     </r>
@@ -179,7 +196,7 @@
         <sz val="10.5"/>
         <color rgb="FF2A2B2E"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>pineapple</t>
     </r>
@@ -190,7 +207,7 @@
         <sz val="10.5"/>
         <color rgb="FF2A2B2E"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>coconut</t>
     </r>
@@ -455,6 +472,133 @@
   </si>
   <si>
     <t>water soluble c</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>bayberry</t>
+  </si>
+  <si>
+    <t>peach</t>
+  </si>
+  <si>
+    <t>lute</t>
+  </si>
+  <si>
+    <t>watermelon</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>pomelo</t>
+  </si>
+  <si>
+    <t>pear</t>
+  </si>
+  <si>
+    <t>grape</t>
+  </si>
+  <si>
+    <t>mangosteen</t>
+  </si>
+  <si>
+    <t>durian</t>
+  </si>
+  <si>
+    <t>pineapple</t>
+  </si>
+  <si>
+    <t>coconut</t>
+  </si>
+  <si>
+    <t>chicken feet</t>
+  </si>
+  <si>
+    <t>duck neck</t>
+  </si>
+  <si>
+    <t>onion ring</t>
+  </si>
+  <si>
+    <t>pea tip</t>
+  </si>
+  <si>
+    <t>chinese cabbage</t>
+  </si>
+  <si>
+    <t>pork ribs</t>
+  </si>
+  <si>
+    <t>pork belly</t>
+  </si>
+  <si>
+    <t>pig's foot</t>
+  </si>
+  <si>
+    <t>pork steak</t>
+  </si>
+  <si>
+    <t>pork chop</t>
+  </si>
+  <si>
+    <t>pork filling</t>
+  </si>
+  <si>
+    <t>pig hind leg</t>
+  </si>
+  <si>
+    <t>beef fillet</t>
+  </si>
+  <si>
+    <t>ox tongue</t>
+  </si>
+  <si>
+    <t>beef spare ribs</t>
+  </si>
+  <si>
+    <t>bull foreleg</t>
+  </si>
+  <si>
+    <t>ox back push</t>
+  </si>
+  <si>
+    <t>beef kidney</t>
+  </si>
+  <si>
+    <t>lamb kidney</t>
+  </si>
+  <si>
+    <t>lamb spareribs</t>
+  </si>
+  <si>
+    <t>leg of lamb</t>
+  </si>
+  <si>
+    <t>sheep outer waist</t>
+  </si>
+  <si>
+    <t>chicken neck</t>
+  </si>
+  <si>
+    <t>chicken breast</t>
+  </si>
+  <si>
+    <t>chicken gizzard</t>
+  </si>
+  <si>
+    <t>chicken wing</t>
+  </si>
+  <si>
+    <t>wang laoji</t>
+  </si>
+  <si>
+    <t>honey and grapefruit water</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>('apple','Fruit',7,30),
@@ -561,142 +705,30 @@
 ('lemon tea','Drink',3,80),
 ('sour plum juice','Drink',8,30),
 ('water soluble c','Drink',6,50);</t>
-  </si>
-  <si>
-    <t>banana</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>bayberry</t>
-  </si>
-  <si>
-    <t>peach</t>
-  </si>
-  <si>
-    <t>lute</t>
-  </si>
-  <si>
-    <t>watermelon</t>
-  </si>
-  <si>
-    <t>mango</t>
-  </si>
-  <si>
-    <t>pomelo</t>
-  </si>
-  <si>
-    <t>pear</t>
-  </si>
-  <si>
-    <t>grape</t>
-  </si>
-  <si>
-    <t>mangosteen</t>
-  </si>
-  <si>
-    <t>durian</t>
-  </si>
-  <si>
-    <t>pineapple</t>
-  </si>
-  <si>
-    <t>coconut</t>
-  </si>
-  <si>
-    <t>chicken feet</t>
-  </si>
-  <si>
-    <t>duck neck</t>
-  </si>
-  <si>
-    <t>onion ring</t>
-  </si>
-  <si>
-    <t>pea tip</t>
-  </si>
-  <si>
-    <t>chinese cabbage</t>
-  </si>
-  <si>
-    <t>pork ribs</t>
-  </si>
-  <si>
-    <t>pork belly</t>
-  </si>
-  <si>
-    <t>pig's foot</t>
-  </si>
-  <si>
-    <t>pork steak</t>
-  </si>
-  <si>
-    <t>pork chop</t>
-  </si>
-  <si>
-    <t>pork filling</t>
-  </si>
-  <si>
-    <t>pig hind leg</t>
-  </si>
-  <si>
-    <t>beef fillet</t>
-  </si>
-  <si>
-    <t>ox tongue</t>
-  </si>
-  <si>
-    <t>beef spare ribs</t>
-  </si>
-  <si>
-    <t>bull foreleg</t>
-  </si>
-  <si>
-    <t>ox back push</t>
-  </si>
-  <si>
-    <t>beef kidney</t>
-  </si>
-  <si>
-    <t>lamb kidney</t>
-  </si>
-  <si>
-    <t>lamb spareribs</t>
-  </si>
-  <si>
-    <t>leg of lamb</t>
-  </si>
-  <si>
-    <t>sheep outer waist</t>
-  </si>
-  <si>
-    <t>chicken neck</t>
-  </si>
-  <si>
-    <t>chicken breast</t>
-  </si>
-  <si>
-    <t>chicken gizzard</t>
-  </si>
-  <si>
-    <t>chicken wing</t>
-  </si>
-  <si>
-    <t>wang laoji</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,354 +740,45 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color rgb="FF2A2B2E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF2A2B2E"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1063,326 +786,43 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1669,1596 +1109,1658 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="A2:D22"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1111111111111" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="14.08984375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="3" ht="16.8" spans="1:4">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="16.8" spans="1:4">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>8</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="16.8" spans="1:4">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="16.8" spans="1:4">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="16.8" spans="1:4">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>12</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="16.8" spans="1:4">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="16.8" spans="1:4">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="16.8" spans="1:4">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>7</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="16.8" spans="1:4">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>6</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="16.8" spans="1:4">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>4</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="16.8" spans="1:4">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>8</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="16.8" spans="1:4">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>25</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="19" ht="16.8" spans="1:4">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>20</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>6.5</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="16.8" spans="1:4">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>5</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="22" ht="16.8" spans="1:4">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>9</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="A2:D21"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1111111111111" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="14.08984375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>20</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>12</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>1.5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>6</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>5</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>5</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>5</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>3</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>10</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="4"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="A2:D22"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7777777777778" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.7777777777778" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="19.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1.2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>12</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>2.5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.8</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="3">
-        <v>8.8</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D11" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3">
-        <v>9.8</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D12" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>5</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>5.5</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>1.5</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>8</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>6</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>4</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>4</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>3</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>3</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="A2:D23"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7777777777778" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="19.81640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>19</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>12.5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>8</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>12.5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>11.5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>11</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>11.5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>35</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>30</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>25</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>33</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>33</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>33</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>15</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>16</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>32</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>25</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>40</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>7.5</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>12</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>23</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="A2:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.8888888888889" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="29.90625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>9</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>6</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>6</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>180</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>225</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>8</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>6</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5555555555556" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77777777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77777777777778" style="1" customWidth="1"/>
-    <col min="6" max="7" width="50.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="50.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3275,13 +2777,13 @@
         <f>"('"&amp;A1&amp;"','"&amp;B1&amp;"',"&amp;C1&amp;","&amp;D1&amp;"),"</f>
         <v>('apple','Fruit',7,30),</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -3296,10 +2798,11 @@
         <f t="shared" ref="F2:F33" si="0">"('"&amp;A2&amp;"','"&amp;B2&amp;"',"&amp;C2&amp;","&amp;D2&amp;"),"</f>
         <v>('banana','Fruit',5,30),</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -3314,8 +2817,9 @@
         <f t="shared" si="0"/>
         <v>('orange','Fruit',8,20),</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3332,10 +2836,11 @@
         <f t="shared" si="0"/>
         <v>('star fruit','Fruit',8,10),</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -3350,8 +2855,9 @@
         <f t="shared" si="0"/>
         <v>('bayberry','Fruit',6,20),</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3368,10 +2874,11 @@
         <f t="shared" si="0"/>
         <v>('yellow peach','Fruit',5,25),</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -3386,10 +2893,11 @@
         <f t="shared" si="0"/>
         <v>('peach','Fruit',4,20),</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -3404,10 +2912,11 @@
         <f t="shared" si="0"/>
         <v>('lute','Fruit',12,5),</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -3422,10 +2931,11 @@
         <f t="shared" si="0"/>
         <v>('orange','Fruit',4,10),</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -3440,10 +2950,11 @@
         <f t="shared" si="0"/>
         <v>('watermelon','Fruit',3,10),</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -3458,8 +2969,9 @@
         <f t="shared" si="0"/>
         <v>('mango','Fruit',7,10),</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3476,10 +2988,11 @@
         <f t="shared" si="0"/>
         <v>('cantaloupe','Fruit',7,15),</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -3494,8 +3007,9 @@
         <f t="shared" si="0"/>
         <v>('pomelo','Fruit',4,15),</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -3509,13 +3023,14 @@
         <v>10</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
+        <f>"('"&amp;A14&amp;"','"&amp;B14&amp;"',"&amp;C14&amp;","&amp;D14&amp;"),"</f>
         <v>('kiwi fruit','Fruit',6,10),</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -3530,10 +3045,11 @@
         <f t="shared" si="0"/>
         <v>('pear','Fruit',4,10),</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -3548,10 +3064,11 @@
         <f t="shared" si="0"/>
         <v>('grape','Fruit',8,20),</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -3566,10 +3083,11 @@
         <f t="shared" si="0"/>
         <v>('mangosteen','Fruit',25,25),</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -3584,8 +3102,9 @@
         <f t="shared" si="0"/>
         <v>('durian','Fruit',20,20),</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3602,10 +3121,11 @@
         <f t="shared" si="0"/>
         <v>('dragon fruit','Fruit',6.5,15),</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -3620,10 +3140,11 @@
         <f t="shared" si="0"/>
         <v>('pineapple','Fruit',5,10),</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
@@ -3638,8 +3159,9 @@
         <f t="shared" si="0"/>
         <v>('coconut','Fruit',9,10),</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -3656,8 +3178,9 @@
         <f t="shared" si="0"/>
         <v>('potato chips','Snack',5,100),</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -3674,8 +3197,9 @@
         <f t="shared" si="0"/>
         <v>('sugar','Snack',0.5,200),</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -3692,8 +3216,9 @@
         <f t="shared" si="0"/>
         <v>('chocolate','Snack',3,100),</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -3710,8 +3235,9 @@
         <f t="shared" si="0"/>
         <v>('cake','Snack',8,105),</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -3728,8 +3254,9 @@
         <f t="shared" si="0"/>
         <v>('jelly','Snack',3,200),</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -3746,8 +3273,9 @@
         <f t="shared" si="0"/>
         <v>('biscuit','Snack',4,300),</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -3764,8 +3292,9 @@
         <f t="shared" si="0"/>
         <v>('cereal','Snack',20,120),</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -3782,8 +3311,9 @@
         <f t="shared" si="0"/>
         <v>('milk tablet','Snack',12,130),</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -3800,8 +3330,9 @@
         <f t="shared" si="0"/>
         <v>('nori','Snack',10,130),</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -3818,8 +3349,9 @@
         <f t="shared" si="0"/>
         <v>('dried fruit','Snack',5,120),</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -3836,8 +3368,9 @@
         <f t="shared" si="0"/>
         <v>('latiao','Snack',1.5,140),</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -3854,8 +3387,9 @@
         <f t="shared" si="0"/>
         <v>('sausage','Snack',4,145),</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -3872,10 +3406,11 @@
         <f t="shared" ref="F34:F65" si="1">"('"&amp;A34&amp;"','"&amp;B34&amp;"',"&amp;C34&amp;","&amp;D34&amp;"),"</f>
         <v>('bread','Snack',6,150),</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
@@ -3890,10 +3425,11 @@
         <f t="shared" si="1"/>
         <v>('chicken feet','Snack',5,155),</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>22</v>
@@ -3908,10 +3444,11 @@
         <f t="shared" si="1"/>
         <v>('duck neck','Snack',5,150),</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>22</v>
@@ -3926,8 +3463,9 @@
         <f t="shared" si="1"/>
         <v>('onion ring','Snack',5,50),</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -3944,8 +3482,9 @@
         <f t="shared" si="1"/>
         <v>('toast','Snack',2,50),</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -3962,8 +3501,9 @@
         <f t="shared" si="1"/>
         <v>('waffle','Snack',5,50),</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -3980,8 +3520,9 @@
         <f t="shared" si="1"/>
         <v>('twist','Snack',3,200),</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -3998,8 +3539,9 @@
         <f t="shared" si="1"/>
         <v>('beef jerky','Snack',10,100),</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -4016,8 +3558,9 @@
         <f t="shared" si="1"/>
         <v>('potato','Vegetable',1.2,10),</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -4034,8 +3577,9 @@
         <f t="shared" si="1"/>
         <v>('loofah','Vegetable',6,10),</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -4052,8 +3596,9 @@
         <f t="shared" si="1"/>
         <v>('mushroom','Vegetable',12,15),</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -4070,8 +3615,9 @@
         <f t="shared" si="1"/>
         <v>('radish','Vegetable',1,15),</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -4088,8 +3634,9 @@
         <f t="shared" si="1"/>
         <v>('green bean','Vegetable',5,15),</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -4106,10 +3653,11 @@
         <f t="shared" si="1"/>
         <v>('enoki mushroom','Vegetable',5,10),</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>43</v>
@@ -4124,8 +3672,9 @@
         <f t="shared" si="1"/>
         <v>('pea tip','Vegetable',6,5),</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -4142,8 +3691,9 @@
         <f t="shared" si="1"/>
         <v>('tomato','Vegetable',2.5,15),</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -4160,8 +3710,9 @@
         <f t="shared" si="1"/>
         <v>('sweet potato','Vegetable',0.8,5),</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -4169,7 +3720,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="1">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D51" s="1">
         <v>5</v>
@@ -4178,8 +3729,9 @@
         <f t="shared" si="1"/>
         <v>('ginger','Vegetable',8.8,5),</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -4187,7 +3739,7 @@
         <v>43</v>
       </c>
       <c r="C52" s="1">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D52" s="1">
         <v>8</v>
@@ -4196,8 +3748,9 @@
         <f t="shared" si="1"/>
         <v>('chili','Vegetable',9.8,8),</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -4214,8 +3767,9 @@
         <f t="shared" si="1"/>
         <v>('green vegetable','Vegetable',4,20),</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -4232,8 +3786,9 @@
         <f t="shared" si="1"/>
         <v>('leek','Vegetable',5,10),</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -4250,8 +3805,9 @@
         <f t="shared" si="1"/>
         <v>('pleurotus eryngii','Vegetable',5.5,8),</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -4268,8 +3824,9 @@
         <f t="shared" si="1"/>
         <v>('onion','Vegetable',1.5,10),</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,8 +3843,9 @@
         <f t="shared" si="1"/>
         <v>('coriander','Vegetable',8,10),</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -4304,8 +3862,9 @@
         <f t="shared" si="1"/>
         <v>('fungus','Vegetable',6,20),</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -4322,8 +3881,9 @@
         <f t="shared" si="1"/>
         <v>('spinach','Vegetable',4,20),</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,10 +3900,11 @@
         <f t="shared" si="1"/>
         <v>('lettuce','Vegetable',4,15),</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>43</v>
@@ -4358,8 +3919,9 @@
         <f t="shared" si="1"/>
         <v>('chinese cabbage','Vegetable',3,20),</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -4376,10 +3938,11 @@
         <f t="shared" si="1"/>
         <v>('eggplant','Vegetable',3,10),</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>65</v>
@@ -4394,10 +3957,11 @@
         <f t="shared" si="1"/>
         <v>('pork ribs','Meet',19,8),</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>65</v>
@@ -4412,10 +3976,11 @@
         <f t="shared" si="1"/>
         <v>('pork belly','Meet',12.5,20),</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>65</v>
@@ -4430,10 +3995,11 @@
         <f t="shared" si="1"/>
         <v>('pig's foot','Meet',8,8),</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>65</v>
@@ -4448,10 +4014,11 @@
         <f t="shared" ref="F66:F97" si="2">"('"&amp;A66&amp;"','"&amp;B66&amp;"',"&amp;C66&amp;","&amp;D66&amp;"),"</f>
         <v>('pork steak','Meet',12.5,8),</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>65</v>
@@ -4466,10 +4033,11 @@
         <f t="shared" si="2"/>
         <v>('pork chop','Meet',11.5,8),</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>65</v>
@@ -4484,10 +4052,11 @@
         <f t="shared" si="2"/>
         <v>('pork filling','Meet',11,7),</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>65</v>
@@ -4502,10 +4071,11 @@
         <f t="shared" si="2"/>
         <v>('pig hind leg','Meet',11.5,10),</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>65</v>
@@ -4520,10 +4090,11 @@
         <f t="shared" si="2"/>
         <v>('beef fillet','Meet',35,15),</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>65</v>
@@ -4538,10 +4109,11 @@
         <f t="shared" si="2"/>
         <v>('ox tongue','Meet',30,15),</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>65</v>
@@ -4556,10 +4128,11 @@
         <f t="shared" si="2"/>
         <v>('beef spare ribs','Meet',25,30),</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>65</v>
@@ -4574,10 +4147,11 @@
         <f t="shared" si="2"/>
         <v>('bull foreleg','Meet',33,15),</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>65</v>
@@ -4592,8 +4166,9 @@
         <f t="shared" si="2"/>
         <v>('ox back push','Meet',33,15),</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -4610,10 +4185,11 @@
         <f t="shared" si="2"/>
         <v>('Fatted cow','Meet',33,20),</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>65</v>
@@ -4628,10 +4204,11 @@
         <f t="shared" si="2"/>
         <v>('beef kidney','Meet',15,10),</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>65</v>
@@ -4646,10 +4223,11 @@
         <f t="shared" si="2"/>
         <v>('lamb kidney','Meet',16,10),</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>65</v>
@@ -4664,10 +4242,11 @@
         <f t="shared" si="2"/>
         <v>('lamb spareribs','Meet',32,20),</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>65</v>
@@ -4682,10 +4261,11 @@
         <f t="shared" si="2"/>
         <v>('leg of lamb','Meet',25,20),</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>65</v>
@@ -4700,10 +4280,11 @@
         <f t="shared" si="2"/>
         <v>('sheep outer waist','Meet',40,6),</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>65</v>
@@ -4718,10 +4299,11 @@
         <f t="shared" si="2"/>
         <v>('chicken neck','Meet',5,10),</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>65</v>
@@ -4736,10 +4318,11 @@
         <f t="shared" si="2"/>
         <v>('chicken breast','Meet',7.5,15),</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>65</v>
@@ -4754,10 +4337,11 @@
         <f t="shared" si="2"/>
         <v>('chicken gizzard','Meet',12,15),</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>65</v>
@@ -4772,8 +4356,9 @@
         <f t="shared" si="2"/>
         <v>('chicken wing','Meet',23,15),</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
@@ -4790,8 +4375,9 @@
         <f t="shared" si="2"/>
         <v>('milk','Drink',3,150),</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>89</v>
       </c>
@@ -4808,8 +4394,9 @@
         <f t="shared" si="2"/>
         <v>('coffee','Drink',8,100),</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>90</v>
       </c>
@@ -4826,8 +4413,9 @@
         <f t="shared" si="2"/>
         <v>('tea','Drink',5,150),</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>91</v>
       </c>
@@ -4844,8 +4432,9 @@
         <f t="shared" si="2"/>
         <v>('milk tea','Drink',12,70),</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>92</v>
       </c>
@@ -4862,8 +4451,9 @@
         <f t="shared" si="2"/>
         <v>('iced black tea','Drink',4,60),</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>93</v>
       </c>
@@ -4880,8 +4470,9 @@
         <f t="shared" si="2"/>
         <v>('wangzai milk','Drink',5,50),</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>94</v>
       </c>
@@ -4898,10 +4489,11 @@
         <f t="shared" si="2"/>
         <v>('oolong tea','Drink',5,70),</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>88</v>
@@ -4916,8 +4508,9 @@
         <f t="shared" si="2"/>
         <v>('wang laoji','Drink',3,50),</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>96</v>
       </c>
@@ -4934,8 +4527,9 @@
         <f t="shared" si="2"/>
         <v>('jasmine tea','Drink',5,60),</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>97</v>
       </c>
@@ -4952,8 +4546,9 @@
         <f t="shared" si="2"/>
         <v>('honey and grapefruit water','Drink',9,80),</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>98</v>
       </c>
@@ -4970,8 +4565,9 @@
         <f t="shared" si="2"/>
         <v>('water','Drink',3,300),</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>99</v>
       </c>
@@ -4988,8 +4584,9 @@
         <f t="shared" si="2"/>
         <v>('chocolate milk','Drink',4,50),</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>100</v>
       </c>
@@ -5006,8 +4603,9 @@
         <f t="shared" si="2"/>
         <v>('strawberry milk','Drink',4,40),</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>101</v>
       </c>
@@ -5021,11 +4619,12 @@
         <v>50</v>
       </c>
       <c r="F98" t="str">
-        <f>"('"&amp;A98&amp;"','"&amp;B98&amp;"',"&amp;C98&amp;","&amp;D98&amp;"),"</f>
+        <f t="shared" ref="F98:F103" si="3">"('"&amp;A98&amp;"','"&amp;B98&amp;"',"&amp;C98&amp;","&amp;D98&amp;"),"</f>
         <v>('red bull','Drink',6,50),</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>102</v>
       </c>
@@ -5039,11 +4638,12 @@
         <v>100</v>
       </c>
       <c r="F99" t="str">
-        <f>"('"&amp;A99&amp;"','"&amp;B99&amp;"',"&amp;C99&amp;","&amp;D99&amp;"),"</f>
+        <f t="shared" si="3"/>
         <v>('beer','Drink',6,100),</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>103</v>
       </c>
@@ -5057,11 +4657,12 @@
         <v>80</v>
       </c>
       <c r="F100" t="str">
-        <f>"('"&amp;A100&amp;"','"&amp;B100&amp;"',"&amp;C100&amp;","&amp;D100&amp;"),"</f>
+        <f t="shared" si="3"/>
         <v>('wine','Drink',180,80),</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>104</v>
       </c>
@@ -5075,11 +4676,12 @@
         <v>50</v>
       </c>
       <c r="F101" t="str">
-        <f>"('"&amp;A101&amp;"','"&amp;B101&amp;"',"&amp;C101&amp;","&amp;D101&amp;"),"</f>
+        <f t="shared" si="3"/>
         <v>('liquor','Drink',225,50),</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>105</v>
       </c>
@@ -5093,11 +4695,12 @@
         <v>80</v>
       </c>
       <c r="F102" t="str">
-        <f>"('"&amp;A102&amp;"','"&amp;B102&amp;"',"&amp;C102&amp;","&amp;D102&amp;"),"</f>
+        <f t="shared" si="3"/>
         <v>('lemon tea','Drink',3,80),</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>106</v>
       </c>
@@ -5111,11 +4714,12 @@
         <v>30</v>
       </c>
       <c r="F103" t="str">
-        <f>"('"&amp;A103&amp;"','"&amp;B103&amp;"',"&amp;C103&amp;","&amp;D103&amp;"),"</f>
+        <f t="shared" si="3"/>
         <v>('sour plum juice','Drink',8,30),</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>107</v>
       </c>
@@ -5132,12 +4736,13 @@
         <f>"('"&amp;A104&amp;"','"&amp;B104&amp;"',"&amp;C104&amp;","&amp;D104&amp;");"</f>
         <v>('water soluble c','Drink',6,50);</v>
       </c>
+      <c r="G104" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:G104"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/data/data.xlsx
+++ b/docs/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\JavaProject\COMP2013JDatabase-Assigment\docs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A540E55-700F-43B8-B9D8-BEC275A72643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A1EB8A-0040-40B0-B285-BFB51FBD2A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="3780" windowWidth="19200" windowHeight="11170" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="3780" windowWidth="19200" windowHeight="11170" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fruit" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,11 @@
     <sheet name="总的" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="155">
   <si>
     <t>apple</t>
   </si>
@@ -601,113 +590,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>('apple','Fruit',7,30),
-('banana','Fruit',5,30),
-('orange','Fruit',8,20),
-('star fruit','Fruit',8,10),
-('bayberry','Fruit',6,20),
-('yellow peach','Fruit',5,25),
-('peach','Fruit',4,20),
-('lute','Fruit',12,5),
-('orange','Fruit',4,10),
-('watermelon','Fruit',3,10),
-('mango','Fruit',7,10),
-('cantaloupe','Fruit',7,15),
-('pomelo','Fruit',4,15),
-('kiwi fruit','Fruit',6,10),
-('pear','Fruit',4,10),
-('grape','Fruit',8,20),
-('mangosteen','Fruit',25,25),
-('durian','Fruit',20,20),
-('dragon fruit','Fruit',6.5,15),
-('pineapple','Fruit',5,10),
-('coconut','Fruit',9,10),
-('potato chips','Snack',5,100),
-('sugar','Snack',0.5,200),
-('chocolate','Snack',3,100),
-('cake','Snack',8,105),
-('jelly','Snack',3,200),
-('biscuit','Snack',4,300),
-('cereal','Snack',20,120),
-('milk tablet','Snack',12,130),
-('nori','Snack',10,130),
-('dried fruit','Snack',5,120),
-('latiao','Snack',1.5,140),
-('sausage','Snack',4,145),
-('bread','Snack',6,150),
-('chicken feet','Snack',5,155),
-('duck neck','Snack',5,150),
-('onion ring','Snack',5,50),
-('toast','Snack',2,50),
-('waffle','Snack',5,50),
-('twist','Snack',3,200),
-('beef jerky','Snack',10,100),
-('potato','Vegetable',1.2,10),
-('loofah','Vegetable',6,10),
-('mushroom','Vegetable',12,15),
-('radish','Vegetable',1,15),
-('green bean','Vegetable',5,15),
-('enoki mushroom','Vegetable',5,10),
-('pea tip','Vegetable',6,5),
-('tomato','Vegetable',2.5,15),
-('sweet potato','Vegetable',0.8,5),
-('ginger','Vegetable',8.8,5),
-('chili','Vegetable',9.8,8),
-('green vegetable','Vegetable',4,20),
-('leek','Vegetable',5,10),
-('pleurotus eryngii','Vegetable',5.5,8),
-('onion','Vegetable',1.5,10),
-('coriander','Vegetable',8,10),
-('fungus','Vegetable',6,20),
-('spinach','Vegetable',4,20),
-('lettuce','Vegetable',4,15),
-('chinese cabbage','Vegetable',3,20),
-('eggplant','Vegetable',3,10),
-('pork ribs','Meet',19,8),
-('pork belly','Meet',12.5,20),
-('pig's foot','Meet',8,8),
-('pork steak','Meet',12.5,8),
-('pork chop','Meet',11.5,8),
-('pork filling','Meet',11,7),
-('pig hind leg','Meet',11.5,10),
-('beef fillet','Meet',35,15),
-('ox tongue','Meet',30,15),
-('beef spare ribs','Meet',25,30),
-('bull foreleg','Meet',33,15),
-('ox back push','Meet',33,15),
-('Fatted cow','Meet',33,20),
-('beef kidney','Meet',15,10),
-('lamb kidney','Meet',16,10),
-('lamb spareribs','Meet',32,20),
-('leg of lamb','Meet',25,20),
-('sheep outer waist','Meet',40,6),
-('chicken neck','Meet',5,10),
-('chicken breast','Meet',7.5,15),
-('chicken gizzard','Meet',12,15),
-('chicken wing','Meet',23,15),
-('milk','Drink',3,150),
-('coffee','Drink',8,100),
-('tea','Drink',5,150),
-('milk tea','Drink',12,70),
-('iced black tea','Drink',4,60),
-('wangzai milk','Drink',5,50),
-('oolong tea','Drink',5,70),
-('wang laoji','Drink',3,50),
-('jasmine tea','Drink',5,60),
-('honey and grapefruit water','Drink',9,80),
-('water','Drink',3,300),
-('chocolate milk','Drink',4,50),
-('strawberry milk','Drink',4,40),
-('red bull','Drink',6,50),
-('beer','Drink',6,100),
-('wine','Drink',180,80),
-('liquor','Drink',225,50),
-('lemon tea','Drink',3,80),
-('sour plum juice','Drink',8,30),
-('water soluble c','Drink',6,50);</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>itemName</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -721,6 +603,10 @@
   </si>
   <si>
     <t>category</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -728,7 +614,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,6 +655,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -792,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,11 +697,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,16 +1018,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1458,16 +1347,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1762,7 +1651,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1774,16 +1663,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2103,16 +1992,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2433,7 +2322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -2445,16 +2334,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2745,2004 +2634,1810 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="50.08984375" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="2"/>
+    <col min="2" max="2" width="25.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D2" s="4">
         <v>7</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E2" s="4">
         <v>30</v>
       </c>
-      <c r="F1" t="str">
-        <f>"('"&amp;A1&amp;"','"&amp;B1&amp;"',"&amp;C1&amp;","&amp;D1&amp;"),"</f>
-        <v>('apple','Fruit',7,30),</v>
-      </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E20" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="4">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4</v>
+      </c>
+      <c r="E28" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="4">
+        <v>20</v>
+      </c>
+      <c r="E29" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="4">
+        <v>12</v>
+      </c>
+      <c r="E30" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="4">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="4">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E33" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="4">
+        <v>4</v>
+      </c>
+      <c r="E34" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="4">
+        <v>6</v>
+      </c>
+      <c r="E35" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5</v>
+      </c>
+      <c r="E36" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="4">
+        <v>5</v>
+      </c>
+      <c r="E37" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="4">
+        <v>5</v>
+      </c>
+      <c r="E38" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="4">
+        <v>5</v>
+      </c>
+      <c r="E40" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="4">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E43" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="4">
+        <v>6</v>
+      </c>
+      <c r="E44" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="4">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E46" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="4">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E47" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="4">
+        <v>5</v>
+      </c>
+      <c r="E48" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="4">
+        <v>6</v>
+      </c>
+      <c r="E49" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E50" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E51" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E52" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E53" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="4">
+        <v>4</v>
+      </c>
+      <c r="E54" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="4">
+        <v>5</v>
+      </c>
+      <c r="E55" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E56" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E57" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="4">
+        <v>8</v>
+      </c>
+      <c r="E58" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="4">
+        <v>6</v>
+      </c>
+      <c r="E59" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="4">
+        <v>4</v>
+      </c>
+      <c r="E60" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="4">
+        <v>4</v>
+      </c>
+      <c r="E61" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="4">
+        <v>3</v>
+      </c>
+      <c r="E62" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="4">
+        <v>3</v>
+      </c>
+      <c r="E63" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="4">
+        <v>19</v>
+      </c>
+      <c r="E64" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="E65" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="4">
+        <v>8</v>
+      </c>
+      <c r="E66" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="E67" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="E68" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="4">
+        <v>11</v>
+      </c>
+      <c r="E69" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="E70" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="4">
+        <v>35</v>
+      </c>
+      <c r="E71" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="4">
         <v>30</v>
       </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F33" si="0">"('"&amp;A2&amp;"','"&amp;B2&amp;"',"&amp;C2&amp;","&amp;D2&amp;"),"</f>
-        <v>('banana','Fruit',5,30),</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="E72" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="4">
+        <v>25</v>
+      </c>
+      <c r="E73" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" s="4">
+        <v>33</v>
+      </c>
+      <c r="E74" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" s="4">
+        <v>33</v>
+      </c>
+      <c r="E75" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" s="4">
+        <v>33</v>
+      </c>
+      <c r="E76" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="4">
+        <v>15</v>
+      </c>
+      <c r="E77" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78" s="4">
+        <v>16</v>
+      </c>
+      <c r="E78" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" s="4">
+        <v>32</v>
+      </c>
+      <c r="E79" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" s="4">
+        <v>25</v>
+      </c>
+      <c r="E80" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" s="4">
+        <v>40</v>
+      </c>
+      <c r="E81" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" s="4">
+        <v>5</v>
+      </c>
+      <c r="E82" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="E83" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" s="4">
+        <v>12</v>
+      </c>
+      <c r="E84" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" s="4">
+        <v>23</v>
+      </c>
+      <c r="E85" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="4">
+        <v>3</v>
+      </c>
+      <c r="E86" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" s="4">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <v>20</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" si="0"/>
-        <v>('orange','Fruit',8,20),</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E87" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" s="4">
+        <v>5</v>
+      </c>
+      <c r="E88" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="4">
+        <v>12</v>
+      </c>
+      <c r="E89" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="E90" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" s="4">
+        <v>5</v>
+      </c>
+      <c r="E91" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" s="4">
+        <v>5</v>
+      </c>
+      <c r="E92" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="4">
+        <v>3</v>
+      </c>
+      <c r="E93" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D94" s="4">
+        <v>5</v>
+      </c>
+      <c r="E94" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D95" s="4">
+        <v>9</v>
+      </c>
+      <c r="E95" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D96" s="4">
+        <v>3</v>
+      </c>
+      <c r="E96" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D97" s="4">
+        <v>4</v>
+      </c>
+      <c r="E97" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D98" s="4">
+        <v>4</v>
+      </c>
+      <c r="E98" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D99" s="4">
+        <v>6</v>
+      </c>
+      <c r="E99" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D100" s="4">
+        <v>6</v>
+      </c>
+      <c r="E100" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" s="4">
+        <v>180</v>
+      </c>
+      <c r="E101" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D102" s="4">
+        <v>225</v>
+      </c>
+      <c r="E102" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D103" s="4">
+        <v>3</v>
+      </c>
+      <c r="E103" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" s="4">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>10</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>('star fruit','Fruit',8,10),</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="E104" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D105" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>('bayberry','Fruit',6,20),</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>25</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>('yellow peach','Fruit',5,25),</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>20</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>('peach','Fruit',4,20),</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>('lute','Fruit',12,5),</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>('orange','Fruit',4,10),</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>('watermelon','Fruit',3,10),</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>('mango','Fruit',7,10),</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1">
-        <v>15</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>('cantaloupe','Fruit',7,15),</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>15</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>('pomelo','Fruit',4,15),</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" t="str">
-        <f>"('"&amp;A14&amp;"','"&amp;B14&amp;"',"&amp;C14&amp;","&amp;D14&amp;"),"</f>
-        <v>('kiwi fruit','Fruit',6,10),</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>10</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>('pear','Fruit',4,10),</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1">
-        <v>20</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>('grape','Fruit',8,20),</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1">
-        <v>25</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>('mangosteen','Fruit',25,25),</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1">
-        <v>20</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>('durian','Fruit',20,20),</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D19" s="1">
-        <v>15</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>('dragon fruit','Fruit',6.5,15),</v>
-      </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1">
-        <v>10</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>('pineapple','Fruit',5,10),</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1">
-        <v>10</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>('coconut','Fruit',9,10),</v>
-      </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1">
-        <v>100</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>('potato chips','Snack',5,100),</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="1">
-        <v>200</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>('sugar','Snack',0.5,200),</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>100</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>('chocolate','Snack',3,100),</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1">
-        <v>105</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>('cake','Snack',8,105),</v>
-      </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1">
-        <v>200</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>('jelly','Snack',3,200),</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="1">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1">
-        <v>300</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>('biscuit','Snack',4,300),</v>
-      </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="1">
-        <v>20</v>
-      </c>
-      <c r="D28" s="1">
-        <v>120</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>('cereal','Snack',20,120),</v>
-      </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="1">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1">
-        <v>130</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>('milk tablet','Snack',12,130),</v>
-      </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="1">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1">
-        <v>130</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>('nori','Snack',10,130),</v>
-      </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="1">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1">
-        <v>120</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>('dried fruit','Snack',5,120),</v>
-      </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D32" s="1">
-        <v>140</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>('latiao','Snack',1.5,140),</v>
-      </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="1">
-        <v>4</v>
-      </c>
-      <c r="D33" s="1">
-        <v>145</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>('sausage','Snack',4,145),</v>
-      </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="1">
-        <v>6</v>
-      </c>
-      <c r="D34" s="1">
-        <v>150</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" ref="F34:F65" si="1">"('"&amp;A34&amp;"','"&amp;B34&amp;"',"&amp;C34&amp;","&amp;D34&amp;"),"</f>
-        <v>('bread','Snack',6,150),</v>
-      </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="1">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1">
-        <v>155</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="1"/>
-        <v>('chicken feet','Snack',5,155),</v>
-      </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="1">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1">
-        <v>150</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="1"/>
-        <v>('duck neck','Snack',5,150),</v>
-      </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="1">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="E105" s="4">
         <v>50</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" si="1"/>
-        <v>('onion ring','Snack',5,50),</v>
-      </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="1">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1">
-        <v>50</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="1"/>
-        <v>('toast','Snack',2,50),</v>
-      </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1">
-        <v>50</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="1"/>
-        <v>('waffle','Snack',5,50),</v>
-      </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="1">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1">
-        <v>200</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="1"/>
-        <v>('twist','Snack',3,200),</v>
-      </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="1">
-        <v>10</v>
-      </c>
-      <c r="D41" s="1">
-        <v>100</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="1"/>
-        <v>('beef jerky','Snack',10,100),</v>
-      </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D42" s="1">
-        <v>10</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="1"/>
-        <v>('potato','Vegetable',1.2,10),</v>
-      </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="1">
-        <v>6</v>
-      </c>
-      <c r="D43" s="1">
-        <v>10</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="1"/>
-        <v>('loofah','Vegetable',6,10),</v>
-      </c>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="1">
-        <v>12</v>
-      </c>
-      <c r="D44" s="1">
-        <v>15</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="1"/>
-        <v>('mushroom','Vegetable',12,15),</v>
-      </c>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
-        <v>15</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="1"/>
-        <v>('radish','Vegetable',1,15),</v>
-      </c>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="1">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1">
-        <v>15</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="1"/>
-        <v>('green bean','Vegetable',5,15),</v>
-      </c>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1">
-        <v>10</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="1"/>
-        <v>('enoki mushroom','Vegetable',5,10),</v>
-      </c>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="1">
-        <v>6</v>
-      </c>
-      <c r="D48" s="1">
-        <v>5</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="1"/>
-        <v>('pea tip','Vegetable',6,5),</v>
-      </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D49" s="1">
-        <v>15</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="1"/>
-        <v>('tomato','Vegetable',2.5,15),</v>
-      </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D50" s="1">
-        <v>5</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="1"/>
-        <v>('sweet potato','Vegetable',0.8,5),</v>
-      </c>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D51" s="1">
-        <v>5</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="1"/>
-        <v>('ginger','Vegetable',8.8,5),</v>
-      </c>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D52" s="1">
-        <v>8</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="1"/>
-        <v>('chili','Vegetable',9.8,8),</v>
-      </c>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="1">
-        <v>4</v>
-      </c>
-      <c r="D53" s="1">
-        <v>20</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="1"/>
-        <v>('green vegetable','Vegetable',4,20),</v>
-      </c>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="1">
-        <v>5</v>
-      </c>
-      <c r="D54" s="1">
-        <v>10</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="1"/>
-        <v>('leek','Vegetable',5,10),</v>
-      </c>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="D55" s="1">
-        <v>8</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="1"/>
-        <v>('pleurotus eryngii','Vegetable',5.5,8),</v>
-      </c>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D56" s="1">
-        <v>10</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="1"/>
-        <v>('onion','Vegetable',1.5,10),</v>
-      </c>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" s="1">
-        <v>8</v>
-      </c>
-      <c r="D57" s="1">
-        <v>10</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="1"/>
-        <v>('coriander','Vegetable',8,10),</v>
-      </c>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="1">
-        <v>6</v>
-      </c>
-      <c r="D58" s="1">
-        <v>20</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="1"/>
-        <v>('fungus','Vegetable',6,20),</v>
-      </c>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="1">
-        <v>4</v>
-      </c>
-      <c r="D59" s="1">
-        <v>20</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="1"/>
-        <v>('spinach','Vegetable',4,20),</v>
-      </c>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="1">
-        <v>4</v>
-      </c>
-      <c r="D60" s="1">
-        <v>15</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" si="1"/>
-        <v>('lettuce','Vegetable',4,15),</v>
-      </c>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="1">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1">
-        <v>20</v>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" si="1"/>
-        <v>('chinese cabbage','Vegetable',3,20),</v>
-      </c>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="1">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1">
-        <v>10</v>
-      </c>
-      <c r="F62" t="str">
-        <f t="shared" si="1"/>
-        <v>('eggplant','Vegetable',3,10),</v>
-      </c>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="1">
-        <v>19</v>
-      </c>
-      <c r="D63" s="1">
-        <v>8</v>
-      </c>
-      <c r="F63" t="str">
-        <f t="shared" si="1"/>
-        <v>('pork ribs','Meet',19,8),</v>
-      </c>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="D64" s="1">
-        <v>20</v>
-      </c>
-      <c r="F64" t="str">
-        <f t="shared" si="1"/>
-        <v>('pork belly','Meet',12.5,20),</v>
-      </c>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="1">
-        <v>8</v>
-      </c>
-      <c r="D65" s="1">
-        <v>8</v>
-      </c>
-      <c r="F65" t="str">
-        <f t="shared" si="1"/>
-        <v>('pig's foot','Meet',8,8),</v>
-      </c>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="D66" s="1">
-        <v>8</v>
-      </c>
-      <c r="F66" t="str">
-        <f t="shared" ref="F66:F97" si="2">"('"&amp;A66&amp;"','"&amp;B66&amp;"',"&amp;C66&amp;","&amp;D66&amp;"),"</f>
-        <v>('pork steak','Meet',12.5,8),</v>
-      </c>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="D67" s="1">
-        <v>8</v>
-      </c>
-      <c r="F67" t="str">
-        <f t="shared" si="2"/>
-        <v>('pork chop','Meet',11.5,8),</v>
-      </c>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="1">
-        <v>11</v>
-      </c>
-      <c r="D68" s="1">
-        <v>7</v>
-      </c>
-      <c r="F68" t="str">
-        <f t="shared" si="2"/>
-        <v>('pork filling','Meet',11,7),</v>
-      </c>
-      <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="D69" s="1">
-        <v>10</v>
-      </c>
-      <c r="F69" t="str">
-        <f t="shared" si="2"/>
-        <v>('pig hind leg','Meet',11.5,10),</v>
-      </c>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="1">
-        <v>35</v>
-      </c>
-      <c r="D70" s="1">
-        <v>15</v>
-      </c>
-      <c r="F70" t="str">
-        <f t="shared" si="2"/>
-        <v>('beef fillet','Meet',35,15),</v>
-      </c>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="1">
-        <v>30</v>
-      </c>
-      <c r="D71" s="1">
-        <v>15</v>
-      </c>
-      <c r="F71" t="str">
-        <f t="shared" si="2"/>
-        <v>('ox tongue','Meet',30,15),</v>
-      </c>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="1">
-        <v>25</v>
-      </c>
-      <c r="D72" s="1">
-        <v>30</v>
-      </c>
-      <c r="F72" t="str">
-        <f t="shared" si="2"/>
-        <v>('beef spare ribs','Meet',25,30),</v>
-      </c>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="1">
-        <v>33</v>
-      </c>
-      <c r="D73" s="1">
-        <v>15</v>
-      </c>
-      <c r="F73" t="str">
-        <f t="shared" si="2"/>
-        <v>('bull foreleg','Meet',33,15),</v>
-      </c>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="1">
-        <v>33</v>
-      </c>
-      <c r="D74" s="1">
-        <v>15</v>
-      </c>
-      <c r="F74" t="str">
-        <f t="shared" si="2"/>
-        <v>('ox back push','Meet',33,15),</v>
-      </c>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="1">
-        <v>33</v>
-      </c>
-      <c r="D75" s="1">
-        <v>20</v>
-      </c>
-      <c r="F75" t="str">
-        <f t="shared" si="2"/>
-        <v>('Fatted cow','Meet',33,20),</v>
-      </c>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="1">
-        <v>15</v>
-      </c>
-      <c r="D76" s="1">
-        <v>10</v>
-      </c>
-      <c r="F76" t="str">
-        <f t="shared" si="2"/>
-        <v>('beef kidney','Meet',15,10),</v>
-      </c>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="1">
-        <v>16</v>
-      </c>
-      <c r="D77" s="1">
-        <v>10</v>
-      </c>
-      <c r="F77" t="str">
-        <f t="shared" si="2"/>
-        <v>('lamb kidney','Meet',16,10),</v>
-      </c>
-      <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="1">
-        <v>32</v>
-      </c>
-      <c r="D78" s="1">
-        <v>20</v>
-      </c>
-      <c r="F78" t="str">
-        <f t="shared" si="2"/>
-        <v>('lamb spareribs','Meet',32,20),</v>
-      </c>
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="1">
-        <v>25</v>
-      </c>
-      <c r="D79" s="1">
-        <v>20</v>
-      </c>
-      <c r="F79" t="str">
-        <f t="shared" si="2"/>
-        <v>('leg of lamb','Meet',25,20),</v>
-      </c>
-      <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C80" s="1">
-        <v>40</v>
-      </c>
-      <c r="D80" s="1">
-        <v>6</v>
-      </c>
-      <c r="F80" t="str">
-        <f t="shared" si="2"/>
-        <v>('sheep outer waist','Meet',40,6),</v>
-      </c>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="1">
-        <v>5</v>
-      </c>
-      <c r="D81" s="1">
-        <v>10</v>
-      </c>
-      <c r="F81" t="str">
-        <f t="shared" si="2"/>
-        <v>('chicken neck','Meet',5,10),</v>
-      </c>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="D82" s="1">
-        <v>15</v>
-      </c>
-      <c r="F82" t="str">
-        <f t="shared" si="2"/>
-        <v>('chicken breast','Meet',7.5,15),</v>
-      </c>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83" s="1">
-        <v>12</v>
-      </c>
-      <c r="D83" s="1">
-        <v>15</v>
-      </c>
-      <c r="F83" t="str">
-        <f t="shared" si="2"/>
-        <v>('chicken gizzard','Meet',12,15),</v>
-      </c>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" s="1">
-        <v>23</v>
-      </c>
-      <c r="D84" s="1">
-        <v>15</v>
-      </c>
-      <c r="F84" t="str">
-        <f t="shared" si="2"/>
-        <v>('chicken wing','Meet',23,15),</v>
-      </c>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="1">
-        <v>3</v>
-      </c>
-      <c r="D85" s="1">
-        <v>150</v>
-      </c>
-      <c r="F85" t="str">
-        <f t="shared" si="2"/>
-        <v>('milk','Drink',3,150),</v>
-      </c>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" s="1">
-        <v>8</v>
-      </c>
-      <c r="D86" s="1">
-        <v>100</v>
-      </c>
-      <c r="F86" t="str">
-        <f t="shared" si="2"/>
-        <v>('coffee','Drink',8,100),</v>
-      </c>
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" s="1">
-        <v>5</v>
-      </c>
-      <c r="D87" s="1">
-        <v>150</v>
-      </c>
-      <c r="F87" t="str">
-        <f t="shared" si="2"/>
-        <v>('tea','Drink',5,150),</v>
-      </c>
-      <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" s="1">
-        <v>12</v>
-      </c>
-      <c r="D88" s="1">
-        <v>70</v>
-      </c>
-      <c r="F88" t="str">
-        <f t="shared" si="2"/>
-        <v>('milk tea','Drink',12,70),</v>
-      </c>
-      <c r="G88" s="5"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" s="1">
-        <v>4</v>
-      </c>
-      <c r="D89" s="1">
-        <v>60</v>
-      </c>
-      <c r="F89" t="str">
-        <f t="shared" si="2"/>
-        <v>('iced black tea','Drink',4,60),</v>
-      </c>
-      <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" s="1">
-        <v>5</v>
-      </c>
-      <c r="D90" s="1">
-        <v>50</v>
-      </c>
-      <c r="F90" t="str">
-        <f t="shared" si="2"/>
-        <v>('wangzai milk','Drink',5,50),</v>
-      </c>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" s="1">
-        <v>5</v>
-      </c>
-      <c r="D91" s="1">
-        <v>70</v>
-      </c>
-      <c r="F91" t="str">
-        <f t="shared" si="2"/>
-        <v>('oolong tea','Drink',5,70),</v>
-      </c>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92" s="1">
-        <v>3</v>
-      </c>
-      <c r="D92" s="1">
-        <v>50</v>
-      </c>
-      <c r="F92" t="str">
-        <f t="shared" si="2"/>
-        <v>('wang laoji','Drink',3,50),</v>
-      </c>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" s="1">
-        <v>5</v>
-      </c>
-      <c r="D93" s="1">
-        <v>60</v>
-      </c>
-      <c r="F93" t="str">
-        <f t="shared" si="2"/>
-        <v>('jasmine tea','Drink',5,60),</v>
-      </c>
-      <c r="G93" s="5"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C94" s="1">
-        <v>9</v>
-      </c>
-      <c r="D94" s="1">
-        <v>80</v>
-      </c>
-      <c r="F94" t="str">
-        <f t="shared" si="2"/>
-        <v>('honey and grapefruit water','Drink',9,80),</v>
-      </c>
-      <c r="G94" s="5"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C95" s="1">
-        <v>3</v>
-      </c>
-      <c r="D95" s="1">
-        <v>300</v>
-      </c>
-      <c r="F95" t="str">
-        <f t="shared" si="2"/>
-        <v>('water','Drink',3,300),</v>
-      </c>
-      <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" s="1">
-        <v>4</v>
-      </c>
-      <c r="D96" s="1">
-        <v>50</v>
-      </c>
-      <c r="F96" t="str">
-        <f t="shared" si="2"/>
-        <v>('chocolate milk','Drink',4,50),</v>
-      </c>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" s="1">
-        <v>4</v>
-      </c>
-      <c r="D97" s="1">
-        <v>40</v>
-      </c>
-      <c r="F97" t="str">
-        <f t="shared" si="2"/>
-        <v>('strawberry milk','Drink',4,40),</v>
-      </c>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" s="1">
-        <v>6</v>
-      </c>
-      <c r="D98" s="1">
-        <v>50</v>
-      </c>
-      <c r="F98" t="str">
-        <f t="shared" ref="F98:F103" si="3">"('"&amp;A98&amp;"','"&amp;B98&amp;"',"&amp;C98&amp;","&amp;D98&amp;"),"</f>
-        <v>('red bull','Drink',6,50),</v>
-      </c>
-      <c r="G98" s="5"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" s="1">
-        <v>6</v>
-      </c>
-      <c r="D99" s="1">
-        <v>100</v>
-      </c>
-      <c r="F99" t="str">
-        <f t="shared" si="3"/>
-        <v>('beer','Drink',6,100),</v>
-      </c>
-      <c r="G99" s="5"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C100" s="1">
-        <v>180</v>
-      </c>
-      <c r="D100" s="1">
-        <v>80</v>
-      </c>
-      <c r="F100" t="str">
-        <f t="shared" si="3"/>
-        <v>('wine','Drink',180,80),</v>
-      </c>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C101" s="1">
-        <v>225</v>
-      </c>
-      <c r="D101" s="1">
-        <v>50</v>
-      </c>
-      <c r="F101" t="str">
-        <f t="shared" si="3"/>
-        <v>('liquor','Drink',225,50),</v>
-      </c>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C102" s="1">
-        <v>3</v>
-      </c>
-      <c r="D102" s="1">
-        <v>80</v>
-      </c>
-      <c r="F102" t="str">
-        <f t="shared" si="3"/>
-        <v>('lemon tea','Drink',3,80),</v>
-      </c>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C103" s="1">
-        <v>8</v>
-      </c>
-      <c r="D103" s="1">
-        <v>30</v>
-      </c>
-      <c r="F103" t="str">
-        <f t="shared" si="3"/>
-        <v>('sour plum juice','Drink',8,30),</v>
-      </c>
-      <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C104" s="1">
-        <v>6</v>
-      </c>
-      <c r="D104" s="1">
-        <v>50</v>
-      </c>
-      <c r="F104" t="str">
-        <f>"('"&amp;A104&amp;"','"&amp;B104&amp;"',"&amp;C104&amp;","&amp;D104&amp;");"</f>
-        <v>('water soluble c','Drink',6,50);</v>
-      </c>
-      <c r="G104" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G1:G104"/>
-  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>